--- a/results/ashdod-yam/data/loi_AY.xlsx
+++ b/results/ashdod-yam/data/loi_AY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\loi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409BC11-6291-475B-8BF9-24A96CA324B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009D1F8-3D86-413B-BC53-F788FFFDE96E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="105" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="105" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,6 @@
     <t>crucible</t>
   </si>
   <si>
-    <t>wet weight</t>
-  </si>
-  <si>
-    <t>sample wet</t>
-  </si>
-  <si>
-    <t>dry weight</t>
-  </si>
-  <si>
-    <t>after 550 C</t>
-  </si>
-  <si>
-    <t>after 950 C</t>
-  </si>
-  <si>
     <t>AY-1</t>
   </si>
   <si>
@@ -211,6 +196,21 @@
   </si>
   <si>
     <t>AY-54_2</t>
+  </si>
+  <si>
+    <t>wet_weight</t>
+  </si>
+  <si>
+    <t>sample_wet</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>after_550_C</t>
+  </si>
+  <si>
+    <t>after_950_C</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -506,25 +506,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>9.5961999999999996</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>8.1541999999999994</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>9.5629000000000008</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>9.1488999999999994</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>9.5144000000000002</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>8.0789000000000009</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>9.5188000000000006</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>9.4295000000000009</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>9.2103000000000002</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>8.3867999999999991</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>8.4114000000000004</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>9.4872999999999994</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>9.3274000000000008</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>9.2731999999999992</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>9.4143000000000008</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>8.2345000000000006</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>9.5022000000000002</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>8.7301000000000002</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>8.5657999999999994</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>9.3607999999999993</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>8.3812999999999995</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>8.9969999999999999</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>8.3661999999999992</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>8.2789000000000001</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>9.7556999999999992</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>9.0145999999999997</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>9.3264999999999993</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>8.4185999999999996</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>9.9253999999999998</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>8.2461000000000002</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>8.9880999999999993</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>8.5734999999999992</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>9.5228999999999999</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>8.7421000000000006</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>8.6100999999999992</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>9.2411999999999992</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>8.4429999999999996</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>9.3950999999999993</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>8.9629999999999992</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>9.5485000000000007</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>8.8388000000000009</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>8.7385000000000002</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>9.4519000000000002</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>9.5747999999999998</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>8.5680999999999994</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>8.9075000000000006</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>9.3801000000000005</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>8.5665999999999993</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>8.9124999999999996</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>9.4860000000000007</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>8.2773000000000003</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>9.3261000000000003</v>

--- a/results/ashdod-yam/data/loi_AY.xlsx
+++ b/results/ashdod-yam/data/loi_AY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009D1F8-3D86-413B-BC53-F788FFFDE96E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5ACD5-BA9A-4885-87FC-AA0F18FCD5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="105" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>sample</t>
   </si>
@@ -211,6 +211,36 @@
   </si>
   <si>
     <t>after_950_C</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Area D acropolis</t>
+  </si>
+  <si>
+    <t>Area D wall</t>
+  </si>
+  <si>
+    <t>Hellenistic area A</t>
+  </si>
+  <si>
+    <t>Builder's floor</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
+  </si>
+  <si>
+    <t>mud plaster</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>mud mortar</t>
   </si>
 </sst>
 </file>
@@ -220,11 +250,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -239,6 +276,19 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,10 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +536,7 @@
   <dimension ref="A1:I931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -495,7 +548,9 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="25" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +575,12 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -545,6 +605,12 @@
       <c r="G2" s="2">
         <v>11.9909</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -569,6 +635,12 @@
       <c r="G3" s="2">
         <v>10.495699999999999</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -593,6 +665,12 @@
       <c r="G4" s="2">
         <v>12.071</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -617,6 +695,12 @@
       <c r="G5" s="2">
         <v>11.6837</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -641,6 +725,12 @@
       <c r="G6" s="2">
         <v>12.273099999999999</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -665,6 +755,12 @@
       <c r="G7" s="2">
         <v>10.0501</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -689,6 +785,12 @@
       <c r="G8" s="2">
         <v>12.148999999999999</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -713,6 +815,12 @@
       <c r="G9" s="2">
         <v>12.1471</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -737,6 +845,12 @@
       <c r="G10" s="2">
         <v>11.6739</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -761,6 +875,12 @@
       <c r="G11" s="2">
         <v>10.869</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -785,6 +905,12 @@
       <c r="G12" s="2">
         <v>11.205399999999999</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -809,6 +935,12 @@
       <c r="G13" s="2">
         <v>11.964499999999999</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -833,6 +965,12 @@
       <c r="G14" s="2">
         <v>11.969099999999999</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -857,6 +995,12 @@
       <c r="G15" s="2">
         <v>11.757099999999999</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -881,8 +1025,14 @@
       <c r="G16" s="2">
         <v>11.8581</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -905,8 +1055,14 @@
       <c r="G17" s="2">
         <v>10.249700000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -929,8 +1085,14 @@
       <c r="G18" s="2">
         <v>11.783099999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -953,8 +1115,14 @@
       <c r="G19" s="2">
         <v>11.2744</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1145,14 @@
       <c r="G20" s="2">
         <v>10.8119</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1001,8 +1175,14 @@
       <c r="G21" s="2">
         <v>11.994899999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1025,8 +1205,14 @@
       <c r="G22" s="2">
         <v>10.999599999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1049,8 +1235,14 @@
       <c r="G23" s="2">
         <v>11.775600000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1073,8 +1265,14 @@
       <c r="G24" s="2">
         <v>11.062200000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1097,8 +1295,14 @@
       <c r="G25" s="2">
         <v>10.8079</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1121,8 +1325,14 @@
       <c r="G26" s="2">
         <v>12.5245</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1145,8 +1355,14 @@
       <c r="G27" s="2">
         <v>10.6211</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1169,8 +1385,14 @@
       <c r="G28" s="2">
         <v>12.098699999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1193,8 +1415,14 @@
       <c r="G29" s="2">
         <v>10.843999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1217,8 +1445,14 @@
       <c r="G30" s="2">
         <v>11.733700000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1241,8 +1475,14 @@
       <c r="G31" s="2">
         <v>10.726900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1265,8 +1505,14 @@
       <c r="G32" s="2">
         <v>11.1006</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1289,8 +1535,14 @@
       <c r="G33" s="2">
         <v>10.418900000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1313,8 +1565,14 @@
       <c r="G34" s="2">
         <v>11.508100000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1337,8 +1595,14 @@
       <c r="G35" s="2">
         <v>11.4757</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1361,8 +1625,14 @@
       <c r="G36" s="2">
         <v>11.4727</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1385,8 +1655,14 @@
       <c r="G37" s="2">
         <v>11.542299999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1409,8 +1685,14 @@
       <c r="G38" s="2">
         <v>11.241099999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1433,8 +1715,14 @@
       <c r="G39" s="2">
         <v>11.907999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1457,8 +1745,14 @@
       <c r="G40" s="2">
         <v>10.8467</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1481,8 +1775,14 @@
       <c r="G41" s="2">
         <v>11.9832</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1505,8 +1805,14 @@
       <c r="G42" s="2">
         <v>10.253500000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1529,8 +1835,14 @@
       <c r="G43" s="2">
         <v>11.5852</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1553,8 +1865,14 @@
       <c r="G44" s="2">
         <v>11.9168</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1577,8 +1895,14 @@
       <c r="G45" s="2">
         <v>12.107699999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1601,8 +1925,14 @@
       <c r="G46" s="2">
         <v>11.2384</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1625,8 +1955,14 @@
       <c r="G47" s="2">
         <v>11.4358</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1649,8 +1985,14 @@
       <c r="G48" s="2">
         <v>12.1129</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1672,8 +2014,14 @@
       <c r="G49" s="2">
         <v>10.577299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1695,8 +2043,14 @@
       <c r="G50" s="2">
         <v>11.389099999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1718,8 +2072,14 @@
       <c r="G51" s="2">
         <v>11.872199999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1741,8 +2101,14 @@
       <c r="G52" s="2">
         <v>10.155799999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1764,18 +2130,24 @@
       <c r="G53" s="2">
         <v>11.726599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2644,8 +3016,8 @@
     <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/ashdod-yam/data/loi_AY.xlsx
+++ b/results/ashdod-yam/data/loi_AY.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5ACD5-BA9A-4885-87FC-AA0F18FCD5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="105" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="105" windowWidth="20070" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -183,21 +182,6 @@
     <t>AY-54</t>
   </si>
   <si>
-    <t>AY-50_2</t>
-  </si>
-  <si>
-    <t>AY-51_2</t>
-  </si>
-  <si>
-    <t>AY-52_2</t>
-  </si>
-  <si>
-    <t>AY-53_2</t>
-  </si>
-  <si>
-    <t>AY-54_2</t>
-  </si>
-  <si>
     <t>wet_weight</t>
   </si>
   <si>
@@ -241,12 +225,27 @@
   </si>
   <si>
     <t>mud mortar</t>
+  </si>
+  <si>
+    <t>AY-54 (2)</t>
+  </si>
+  <si>
+    <t>AY-50 (2)</t>
+  </si>
+  <si>
+    <t>AY-51 (2)</t>
+  </si>
+  <si>
+    <t>AY-52 (2)</t>
+  </si>
+  <si>
+    <t>AY-53 (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
@@ -532,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -561,25 +560,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,10 +605,10 @@
         <v>11.9909</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,10 +635,10 @@
         <v>10.495699999999999</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,10 +665,10 @@
         <v>12.071</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,10 +695,10 @@
         <v>11.6837</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,10 +725,10 @@
         <v>12.273099999999999</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,10 +755,10 @@
         <v>10.0501</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,10 +785,10 @@
         <v>12.148999999999999</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,10 +815,10 @@
         <v>12.1471</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -846,10 +845,10 @@
         <v>11.6739</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,10 +875,10 @@
         <v>10.869</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,10 +905,10 @@
         <v>11.205399999999999</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,10 +935,10 @@
         <v>11.964499999999999</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,10 +965,10 @@
         <v>11.969099999999999</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,10 +995,10 @@
         <v>11.757099999999999</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,10 +1025,10 @@
         <v>11.8581</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,10 +1055,10 @@
         <v>10.249700000000001</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,10 +1085,10 @@
         <v>11.783099999999999</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,10 +1115,10 @@
         <v>11.2744</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1145,10 @@
         <v>10.8119</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,10 +1175,10 @@
         <v>11.994899999999999</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,10 +1205,10 @@
         <v>10.999599999999999</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,10 +1235,10 @@
         <v>11.775600000000001</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,10 +1265,10 @@
         <v>11.062200000000001</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,10 +1295,10 @@
         <v>10.8079</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,10 +1325,10 @@
         <v>12.5245</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,10 +1355,10 @@
         <v>10.6211</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,10 +1385,10 @@
         <v>12.098699999999999</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,10 +1415,10 @@
         <v>10.843999999999999</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,10 +1445,10 @@
         <v>11.733700000000001</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,10 +1475,10 @@
         <v>10.726900000000001</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,10 +1505,10 @@
         <v>11.1006</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,10 +1535,10 @@
         <v>10.418900000000001</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,10 +1565,10 @@
         <v>11.508100000000001</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,10 +1595,10 @@
         <v>11.4757</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,10 +1625,10 @@
         <v>11.4727</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,10 +1655,10 @@
         <v>11.542299999999999</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,10 +1685,10 @@
         <v>11.241099999999999</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,10 +1715,10 @@
         <v>11.907999999999999</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,10 +1745,10 @@
         <v>10.8467</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,10 +1775,10 @@
         <v>11.9832</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,10 +1805,10 @@
         <v>10.253500000000001</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,10 +1835,10 @@
         <v>11.5852</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,10 +1865,10 @@
         <v>11.9168</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,10 +1895,10 @@
         <v>12.107699999999999</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,10 +1925,10 @@
         <v>11.2384</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,10 +1955,10 @@
         <v>11.4358</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,15 +1985,15 @@
         <v>12.1129</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2">
         <v>8.5665999999999993</v>
@@ -2015,15 +2014,15 @@
         <v>10.577299999999999</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2">
         <v>8.9124999999999996</v>
@@ -2044,15 +2043,15 @@
         <v>11.389099999999999</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2">
         <v>9.4860000000000007</v>
@@ -2073,15 +2072,15 @@
         <v>11.872199999999999</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2">
         <v>8.2773000000000003</v>
@@ -2102,15 +2101,15 @@
         <v>10.155799999999999</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>9.3261000000000003</v>
@@ -2131,10 +2130,10 @@
         <v>11.726599999999999</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
